--- a/findings/topics.xlsx
+++ b/findings/topics.xlsx
@@ -460,16 +460,16 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>628</v>
+        <v>762</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_türkiye_millet_ülke_türk</t>
+          <t>-1_türkiye_ülke_millet_ver</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>türkiye, millet, ülke, türk, ver</t>
+          <t>türkiye, ülke, millet, ver, ittifak</t>
         </is>
       </c>
     </row>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_buluş_millet_oy_sandık</t>
+          <t>0_yayın_program_canlı_konuk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, sandık, seçim</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
@@ -496,16 +496,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_cumhurbaşkan_aday_ata_ittifak</t>
+          <t>1_buluş_millet_oy_imza</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
+          <t>buluş, millet, oy, imza, seçim</t>
         </is>
       </c>
     </row>
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_yayın_program_canlı_konuk</t>
+          <t>2_konut_deprem_depremzede_temel</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>konut, deprem, depremzede, temel, hastane</t>
         </is>
       </c>
     </row>
@@ -532,16 +532,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_konut_deprem_depremzede_temel</t>
+          <t>3_aday_cumhurbaşkan_ata_ittifak</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
         </is>
       </c>
     </row>
@@ -550,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_türk_türkiye_milliyetçi_yüzyıl</t>
+          <t>4_şehit_rahmet_atatürk_an</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
+          <t>şehit, rahmet, atatürk, an, gazi</t>
         </is>
       </c>
     </row>
@@ -568,16 +568,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_şehit_rahmet_atatürk_gazi</t>
+          <t>5_türk_türkiye_yüzyıl_milliyetçi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, gazi, allah</t>
+          <t>türk, türkiye, yüzyıl, milliyetçi, azerbaycan</t>
         </is>
       </c>
     </row>
@@ -586,16 +586,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_teşekkür_başkan_muhteşem_dernek</t>
+          <t>6_türk_bayram_türkiye_millet</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, misafirperverlikleri</t>
+          <t>türk, bayram, türkiye, millet, atatürk</t>
         </is>
       </c>
     </row>
@@ -604,16 +604,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_gel_saat_bekle_bura</t>
+          <t>7_öğretmen_emekli_maaş_eğitim</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gel, saat, bekle, bura, bugün</t>
+          <t>öğretmen, emekli, maaş, eğitim, hak</t>
         </is>
       </c>
     </row>
@@ -622,16 +622,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_esnaf_cadde_ziyaret_yoğun</t>
+          <t>8_teşekkür_başkan_muhteşem_dernek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, yoğun, genç</t>
+          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
         </is>
       </c>
     </row>
@@ -640,16 +640,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_milyar_yatırım_lira_dolar</t>
+          <t>9_gel_saat_bekle_sizinle</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>milyar, yatırım, lira, dolar, kamu</t>
+          <t>gel, saat, bekle, sizinle, yalnız</t>
         </is>
       </c>
     </row>
@@ -658,16 +658,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_muhteşem_bil_şanlıurfa_van</t>
+          <t>10_milyar_yatırım_lira_dolar</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, van, adana</t>
+          <t>milyar, yatırım, lira, dolar, kamu</t>
         </is>
       </c>
     </row>
@@ -676,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_basın_açıkla_medya_cemiyet</t>
+          <t>11_esnaf_cadde_ziyaret_buluş</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>basın, açıkla, medya, cemiyet, uygula</t>
+          <t>esnaf, cadde, ziyaret, buluş, genç</t>
         </is>
       </c>
     </row>
@@ -694,16 +694,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_bayram_acı_çerkes_bereket</t>
+          <t>12_muhteşem_bil_şanlıurfa_van</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>bayram, acı, çerkes, bereket, yıl</t>
+          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
         </is>
       </c>
     </row>
@@ -712,16 +712,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_millet_örgüt_saldırı_chp</t>
+          <t>13_basın_açıkla_medya_cemiyet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>millet, örgüt, saldırı, chp, el</t>
+          <t>basın, açıkla, medya, cemiyet, uygula</t>
         </is>
       </c>
     </row>
@@ -730,16 +730,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14_nükleer_santral_enerji_üretim</t>
+          <t>14_sığınmacı_kaçak_gönder_kararname</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>nükleer, santral, enerji, üretim, ülke</t>
+          <t>sığınmacı, kaçak, gönder, kararname, vatandaşlık</t>
         </is>
       </c>
     </row>
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15_emekli_maaş_polis_hak</t>
+          <t>15_millet_al_saldırı_chp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>emekli, maaş, polis, hak, düşük</t>
+          <t>millet, al, saldırı, chp, insan</t>
         </is>
       </c>
     </row>
@@ -766,16 +766,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_genç_telefon_buluş_medya</t>
+          <t>16_genç_telefon_internet_buluş</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>genç, telefon, buluş, medya, akşam</t>
+          <t>genç, telefon, internet, buluş, medya</t>
         </is>
       </c>
     </row>
@@ -784,16 +784,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_öğretmen_eğitim_engelli_okul</t>
+          <t>17_nükleer_santral_enerji_üretim</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>öğretmen, eğitim, engelli, okul, ata</t>
+          <t>nükleer, santral, enerji, üretim, gaz</t>
         </is>
       </c>
     </row>
@@ -802,16 +802,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18_sahte_sanatçı_iyi_sağduyu</t>
+          <t>18_helikopter_uzay_uçak_kuzey</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sahte, sanatçı, iyi, sağduyu, gerçek</t>
+          <t>helikopter, uzay, uçak, kuzey, milli</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19_güzel_öv_çocuk_delikanlı</t>
+          <t>19_acı_çerkes_sürgün_kardeş</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>güzel, öv, çocuk, delikanlı, vıcık</t>
+          <t>acı, çerkes, sürgün, kardeş, rahmet</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20_uzay_helikopter_uçak_kuzey</t>
+          <t>20_güzel_öv_çocuk_delikanlı</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>uzay, helikopter, uçak, kuzey, milli</t>
+          <t>güzel, öv, çocuk, delikanlı, vıcık</t>
         </is>
       </c>
     </row>
@@ -856,16 +856,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21_güvenlik_seçim_konu_trol</t>
+          <t>21_sahte_belge_kumpas_fetö</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>güvenlik, seçim, konu, trol, accounts</t>
+          <t>sahte, belge, kumpas, fetö, nere</t>
         </is>
       </c>
     </row>
@@ -874,16 +874,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22_devlet_olağanüstü_zirve_teşkilat</t>
+          <t>22_güvenlik_seçim_konu_trol</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>devlet, olağanüstü, zirve, teşkilat, novak</t>
+          <t>güvenlik, seçim, konu, trol, accounts</t>
         </is>
       </c>
     </row>

--- a/findings/topics.xlsx
+++ b/findings/topics.xlsx
@@ -460,7 +460,7 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>762</v>
+        <v>709</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>türkiye, ülke, millet, ver, ittifak</t>
+          <t>türkiye, ülke, millet, ver, türk</t>
         </is>
       </c>
     </row>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_yayın_program_canlı_konuk</t>
+          <t>0_cumhurbaşkan_aday_ata_ittifak</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
         </is>
       </c>
     </row>
@@ -496,16 +496,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_buluş_millet_oy_imza</t>
+          <t>1_yayın_program_canlı_konuk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, imza, seçim</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_konut_deprem_depremzede_temel</t>
+          <t>2_millet_oy_buluş_sandık</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>millet, oy, buluş, sandık, seçim</t>
         </is>
       </c>
     </row>
@@ -532,16 +532,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_aday_cumhurbaşkan_ata_ittifak</t>
+          <t>3_konut_deprem_depremzede_temel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
+          <t>konut, deprem, depremzede, temel, hastane</t>
         </is>
       </c>
     </row>
@@ -550,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_şehit_rahmet_atatürk_an</t>
+          <t>4_bayram_atatürk_türk_kutlu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, an, gazi</t>
+          <t>bayram, atatürk, türk, kutlu, mustafa</t>
         </is>
       </c>
     </row>
@@ -568,16 +568,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_türk_türkiye_yüzyıl_milliyetçi</t>
+          <t>5_türk_türkiye_milliyetçi_yüzyıl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>türk, türkiye, yüzyıl, milliyetçi, azerbaycan</t>
+          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
         </is>
       </c>
     </row>
@@ -586,16 +586,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_türk_bayram_türkiye_millet</t>
+          <t>6_şehit_rahmet_atatürk_an</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>türk, bayram, türkiye, millet, atatürk</t>
+          <t>şehit, rahmet, atatürk, an, dönüm</t>
         </is>
       </c>
     </row>
@@ -604,16 +604,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_öğretmen_emekli_maaş_eğitim</t>
+          <t>7_teşekkür_başkan_dernek_muhteşem</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>öğretmen, emekli, maaş, eğitim, hak</t>
+          <t>teşekkür, başkan, dernek, muhteşem, misafirperverlikleri</t>
         </is>
       </c>
     </row>
@@ -622,16 +622,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_teşekkür_başkan_muhteşem_dernek</t>
+          <t>8_iyi_sanatçı_allah_iş</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
+          <t>iyi, sanatçı, allah, iş, çık</t>
         </is>
       </c>
     </row>
@@ -640,16 +640,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_gel_saat_bekle_sizinle</t>
+          <t>9_gel_buluş_saat_bugün</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gel, saat, bekle, sizinle, yalnız</t>
+          <t>gel, buluş, saat, bugün, bekle</t>
         </is>
       </c>
     </row>
@@ -676,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_esnaf_cadde_ziyaret_buluş</t>
+          <t>11_esnaf_cadde_ziyaret_genç</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, buluş, genç</t>
+          <t>esnaf, cadde, ziyaret, genç, yoğun</t>
         </is>
       </c>
     </row>
@@ -694,16 +694,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_muhteşem_bil_şanlıurfa_van</t>
+          <t>12_basın_açıkla_medya_uygula</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
+          <t>basın, açıkla, medya, uygula, cemiyet</t>
         </is>
       </c>
     </row>
@@ -712,16 +712,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_basın_açıkla_medya_cemiyet</t>
+          <t>13_muhteşem_bil_şanlıurfa_van</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>basın, açıkla, medya, cemiyet, uygula</t>
+          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
         </is>
       </c>
     </row>
@@ -730,16 +730,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14_sığınmacı_kaçak_gönder_kararname</t>
+          <t>14_emekli_polis_maaş_hak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sığınmacı, kaçak, gönder, kararname, vatandaşlık</t>
+          <t>emekli, polis, maaş, hak, düşük</t>
         </is>
       </c>
     </row>
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15_millet_al_saldırı_chp</t>
+          <t>15_nükleer_santral_enerji_üretim</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>millet, al, saldırı, chp, insan</t>
+          <t>nükleer, santral, enerji, üretim, gaz</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_genç_telefon_internet_buluş</t>
+          <t>16_sığınmacı_kaçak_gönder_kararname</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>genç, telefon, internet, buluş, medya</t>
+          <t>sığınmacı, kaçak, gönder, kararname, kal</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_nükleer_santral_enerji_üretim</t>
+          <t>17_genç_internet_buluş_telefon</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>nükleer, santral, enerji, üretim, gaz</t>
+          <t>genç, internet, buluş, telefon, medya</t>
         </is>
       </c>
     </row>
@@ -802,16 +802,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18_helikopter_uzay_uçak_kuzey</t>
+          <t>18_öğretmen_eğitim_okul_engelli</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>helikopter, uzay, uçak, kuzey, milli</t>
+          <t>öğretmen, eğitim, okul, engelli, ata</t>
         </is>
       </c>
     </row>
@@ -820,16 +820,16 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19_acı_çerkes_sürgün_kardeş</t>
+          <t>19_ırak_terör_örgüt_karşı</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>acı, çerkes, sürgün, kardeş, rahmet</t>
+          <t>ırak, terör, örgüt, karşı, kardeş</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20_güzel_öv_çocuk_delikanlı</t>
+          <t>20_dadaş_öv_güzel_çocuk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>güzel, öv, çocuk, delikanlı, vıcık</t>
+          <t>dadaş, öv, güzel, çocuk, erzurum</t>
         </is>
       </c>
     </row>
@@ -860,12 +860,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21_sahte_belge_kumpas_fetö</t>
+          <t>21_helikopter_uzay_uçak_kuzey</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>sahte, belge, kumpas, fetö, nere</t>
+          <t>helikopter, uzay, uçak, kuzey, milli</t>
         </is>
       </c>
     </row>
@@ -874,16 +874,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22_güvenlik_seçim_konu_trol</t>
+          <t>22_acı_çerkes_sürgün_kardeş</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>güvenlik, seçim, konu, trol, accounts</t>
+          <t>acı, çerkes, sürgün, kardeş, kayıp</t>
         </is>
       </c>
     </row>

--- a/findings/topics.xlsx
+++ b/findings/topics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,16 +460,16 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>709</v>
+        <v>258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_türkiye_ülke_millet_ver</t>
+          <t>-1_ülke_genç_iş_kardeş</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>türkiye, ülke, millet, ver, türk</t>
+          <t>ülke, genç, iş, kardeş, millet</t>
         </is>
       </c>
     </row>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_cumhurbaşkan_aday_ata_ittifak</t>
+          <t>0_buluş_millet_muhteşem_erzurum</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
+          <t>buluş, millet, muhteşem, erzurum, hatay</t>
         </is>
       </c>
     </row>
@@ -496,16 +496,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_yayın_program_canlı_konuk</t>
+          <t>1_konut_deprem_temel_at</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>konut, deprem, temel, at, ev</t>
         </is>
       </c>
     </row>
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_millet_oy_buluş_sandık</t>
+          <t>2_rahmet_atatürk_şehit_dile</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>millet, oy, buluş, sandık, seçim</t>
+          <t>rahmet, atatürk, şehit, dile, allah</t>
         </is>
       </c>
     </row>
@@ -532,16 +532,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_konut_deprem_depremzede_temel</t>
+          <t>3_türkiye_yüzyıl_ülke_mayıs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>türkiye, yüzyıl, ülke, mayıs, millet</t>
         </is>
       </c>
     </row>
@@ -550,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_bayram_atatürk_türk_kutlu</t>
+          <t>4_seçim_sandık_millet_mayıs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>bayram, atatürk, türk, kutlu, mustafa</t>
+          <t>seçim, sandık, millet, mayıs, oy</t>
         </is>
       </c>
     </row>
@@ -568,16 +568,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_türk_türkiye_milliyetçi_yüzyıl</t>
+          <t>5_teşekkür_kardeş_muhteşem_güzel</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
+          <t>teşekkür, kardeş, muhteşem, güzel, istanbul</t>
         </is>
       </c>
     </row>
@@ -586,16 +586,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_şehit_rahmet_atatürk_an</t>
+          <t>6_canlı_yayın_tv_basın</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, an, dönüm</t>
+          <t>canlı, yayın, tv, basın, açıkla</t>
         </is>
       </c>
     </row>
@@ -604,16 +604,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_teşekkür_başkan_dernek_muhteşem</t>
+          <t>7_gel_sev_haydi_vatan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, dernek, muhteşem, misafirperverlikleri</t>
+          <t>gel, sev, haydi, vatan, bura</t>
         </is>
       </c>
     </row>
@@ -622,16 +622,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_iyi_sanatçı_allah_iş</t>
+          <t>8_milyar_yatırım_lira_kamu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>iyi, sanatçı, allah, iş, çık</t>
+          <t>milyar, yatırım, lira, kamu, dolar</t>
         </is>
       </c>
     </row>
@@ -640,16 +640,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_gel_buluş_saat_bugün</t>
+          <t>9_nükleer_santral_enerji_üretim</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gel, buluş, saat, bugün, bekle</t>
+          <t>nükleer, santral, enerji, üretim, ülke</t>
         </is>
       </c>
     </row>
@@ -658,16 +658,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_milyar_yatırım_lira_dolar</t>
+          <t>10_emekli_maaş_hanım_aile</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>milyar, yatırım, lira, dolar, kamu</t>
+          <t>emekli, maaş, hanım, aile, düşük</t>
         </is>
       </c>
     </row>
@@ -676,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_esnaf_cadde_ziyaret_genç</t>
+          <t>11_uzay_altay_milli_tank</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, genç, yoğun</t>
+          <t>uzay, altay, milli, tank, uçak</t>
         </is>
       </c>
     </row>
@@ -694,16 +694,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_basın_açıkla_medya_uygula</t>
+          <t>12_öğretmen_ata_eğitim_engelli</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>basın, açıkla, medya, uygula, cemiyet</t>
+          <t>öğretmen, ata, eğitim, engelli, okul</t>
         </is>
       </c>
     </row>
@@ -712,178 +712,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_muhteşem_bil_şanlıurfa_van</t>
+          <t>13_para_yatırım_erdoğan_çalış</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" t="n">
-        <v>27</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14_emekli_polis_maaş_hak</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>emekli, polis, maaş, hak, düşük</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" t="n">
-        <v>25</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>15_nükleer_santral_enerji_üretim</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nükleer, santral, enerji, üretim, gaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" t="n">
-        <v>25</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16_sığınmacı_kaçak_gönder_kararname</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>sığınmacı, kaçak, gönder, kararname, kal</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" t="n">
-        <v>24</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17_genç_internet_buluş_telefon</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>genç, internet, buluş, telefon, medya</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" t="n">
-        <v>23</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>18_öğretmen_eğitim_okul_engelli</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>öğretmen, eğitim, okul, engelli, ata</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19_ırak_terör_örgüt_karşı</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ırak, terör, örgüt, karşı, kardeş</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" t="n">
-        <v>14</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20_dadaş_öv_güzel_çocuk</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>dadaş, öv, güzel, çocuk, erzurum</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>21_helikopter_uzay_uçak_kuzey</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>helikopter, uzay, uçak, kuzey, milli</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>22</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22_acı_çerkes_sürgün_kardeş</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>acı, çerkes, sürgün, kardeş, kayıp</t>
+          <t>para, yatırım, erdoğan, çalış, ver</t>
         </is>
       </c>
     </row>
